--- a/Assessment/Stat/apply stat in excel.xlsx
+++ b/Assessment/Stat/apply stat in excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tops_Smit\Assessment\Stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F43589BF-6D46-485C-B6A2-F24179656E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC81FE-B252-4DFC-8CC4-6AE930132B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{079176B8-0993-4A80-972B-0B4DB4DE17E1}"/>
   </bookViews>
@@ -258,19 +258,19 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +588,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,284 +599,284 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>39083</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>15000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>39448</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>17500</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>39814</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>39114</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>14500</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>39479</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>12000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>39845</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>15000</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>39142</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>14500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>39508</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>16000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>39873</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>14000</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>39173</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>14000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>39539</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>19000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>39904</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>16500</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <f>_xlfn.VAR.P(D6:D17,F6:F17,H6:H17)</f>
         <v>6241319.444444444</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>39203</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>16000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>39569</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>17000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>39934</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>39234</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>9500</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>39600</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>10500</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>39965</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>12500</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>39264</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>13500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>39630</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>39995</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>39295</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>17000</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>39661</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>12000</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>40026</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>18500</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>39326</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>39692</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>40057</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>14500</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>39356</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>15000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>39722</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>15500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>40087</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>39387</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>17500</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>39753</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>15000</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>40118</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>39417</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>18000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>39783</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>17500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>40148</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>17000</v>
       </c>
     </row>
@@ -886,204 +886,204 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="9"/>
+      <c r="J22" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>176</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>179</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>179</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="4">
         <f>_xlfn.VAR.P(D24:D30,F24:F30,H24:H30)</f>
         <v>8.820861678004535</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>174</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>173</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>181</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>184</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>178</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>175</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>183</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>172</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>176</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>176</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>177</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>177</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="5">
         <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="J22:J23"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
